--- a/src/main/webapp/WEB-INF/static/template/stock/stockRemarkTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/static/template/stock/stockRemarkTemplate.xlsx
@@ -33,9 +33,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,8 +79,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -359,26 +356,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
